--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Epha3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N2">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O2">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P2">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q2">
-        <v>1.402885550108889</v>
+        <v>0.1307523398388889</v>
       </c>
       <c r="R2">
-        <v>12.62596995098</v>
+        <v>1.17677105855</v>
       </c>
       <c r="S2">
-        <v>0.002228275846285932</v>
+        <v>0.0001176603422574773</v>
       </c>
       <c r="T2">
-        <v>0.002228275846285932</v>
+        <v>0.0001176603422574773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.10861</v>
       </c>
       <c r="O3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P3">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q3">
-        <v>461.5333235800045</v>
+        <v>942.1095848497621</v>
       </c>
       <c r="R3">
-        <v>4153.79991222004</v>
+        <v>8478.986263647859</v>
       </c>
       <c r="S3">
-        <v>0.7330773042102895</v>
+        <v>0.8477778396475295</v>
       </c>
       <c r="T3">
-        <v>0.7330773042102894</v>
+        <v>0.8477778396475296</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.392475</v>
       </c>
       <c r="O4">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P4">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q4">
-        <v>2.740040838433333</v>
+        <v>5.593136193816665</v>
       </c>
       <c r="R4">
-        <v>24.6603675459</v>
+        <v>50.33822574435</v>
       </c>
       <c r="S4">
-        <v>0.004352148910254404</v>
+        <v>0.005033105485286473</v>
       </c>
       <c r="T4">
-        <v>0.004352148910254402</v>
+        <v>0.005033105485286473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N5">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O5">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P5">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q5">
-        <v>0.1558726792644445</v>
+        <v>0.00711703118888889</v>
       </c>
       <c r="R5">
-        <v>1.40285411338</v>
+        <v>0.06405328070000001</v>
       </c>
       <c r="S5">
-        <v>0.0002475806570777473</v>
+        <v>6.404415604138555E-06</v>
       </c>
       <c r="T5">
-        <v>0.0002475806570777472</v>
+        <v>6.404415604138555E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>66.10861</v>
       </c>
       <c r="O6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P6">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q6">
         <v>51.28033125058223</v>
@@ -818,10 +818,10 @@
         <v>461.52298125524</v>
       </c>
       <c r="S6">
-        <v>0.0814512085510788</v>
+        <v>0.04614572353699292</v>
       </c>
       <c r="T6">
-        <v>0.08145120855107879</v>
+        <v>0.04614572353699292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,10 +868,10 @@
         <v>0.392475</v>
       </c>
       <c r="O7">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P7">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q7">
         <v>0.3044421597666667</v>
@@ -880,10 +880,10 @@
         <v>2.7399794379</v>
       </c>
       <c r="S7">
-        <v>0.000483561264956027</v>
+        <v>0.000273958911633164</v>
       </c>
       <c r="T7">
-        <v>0.0004835612649560269</v>
+        <v>0.000273958911633164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06698166666666668</v>
+        <v>0.003058333333333333</v>
       </c>
       <c r="N8">
-        <v>0.200945</v>
+        <v>0.009175000000000001</v>
       </c>
       <c r="O8">
-        <v>0.003012576978541733</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="P8">
-        <v>0.003012576978541732</v>
+        <v>0.0001379486413073712</v>
       </c>
       <c r="Q8">
-        <v>0.3379103176700001</v>
+        <v>0.01542873505</v>
       </c>
       <c r="R8">
-        <v>3.041192859030001</v>
+        <v>0.13885861545</v>
       </c>
       <c r="S8">
-        <v>0.0005367204751780532</v>
+        <v>1.388388344575541E-05</v>
       </c>
       <c r="T8">
-        <v>0.0005367204751780531</v>
+        <v>1.388388344575541E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>66.10861</v>
       </c>
       <c r="O9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="P9">
-        <v>0.9911034191912899</v>
+        <v>0.9939610820947024</v>
       </c>
       <c r="Q9">
         <v>111.16863522766</v>
@@ -1004,10 +1004,10 @@
         <v>1000.51771704894</v>
       </c>
       <c r="S9">
-        <v>0.1765749064299216</v>
+        <v>0.1000375189101799</v>
       </c>
       <c r="T9">
-        <v>0.1765749064299216</v>
+        <v>0.1000375189101799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,22 +1054,22 @@
         <v>0.392475</v>
       </c>
       <c r="O10">
-        <v>0.005884003830168287</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="P10">
-        <v>0.005884003830168286</v>
+        <v>0.005900969263990248</v>
       </c>
       <c r="Q10">
-        <v>0.65998831485</v>
+        <v>0.6599883148499999</v>
       </c>
       <c r="R10">
-        <v>5.93989483365</v>
+        <v>5.939894833649999</v>
       </c>
       <c r="S10">
-        <v>0.001048293654957856</v>
+        <v>0.0005939048670706111</v>
       </c>
       <c r="T10">
-        <v>0.001048293654957856</v>
+        <v>0.0005939048670706111</v>
       </c>
     </row>
   </sheetData>
